--- a/metrics/R2/upto time/Infarto de Miocardio (UPTO).xlsx
+++ b/metrics/R2/upto time/Infarto de Miocardio (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4382479562435325</v>
+        <v>0.3588624189652365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4382479562435325</v>
+        <v>0.3588624189652365</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4382479562435325</v>
+        <v>0.3588624189652365</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.997798918246381</v>
+        <v>0.9886638674490884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9979139026595396</v>
+        <v>0.9889223083884027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9979339359005355</v>
+        <v>0.9890701560688798</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9987276742657639</v>
+        <v>0.9853411510374629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987276674266027</v>
+        <v>0.9853885396860883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9987298868107543</v>
+        <v>0.985424136887296</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9505719392136326</v>
+        <v>0.9396289123034969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.955905759351006</v>
+        <v>0.9418699506191156</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9550541970782161</v>
+        <v>0.9342443129186822</v>
       </c>
     </row>
   </sheetData>
